--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\OneDrive\Desktop\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57586D13-0CE7-4F51-9C74-6AC75B46B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E177A4B7-83ED-420F-93F7-3721E815B43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{50A14011-2370-4AA2-ABF4-8846DFD5CA85}"/>
   </bookViews>
@@ -39,26 +39,26 @@
     <t>Name</t>
   </si>
   <si>
+    <t>vivian</t>
+  </si>
+  <si>
+    <t>Dinakar</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Rishi</t>
+  </si>
+  <si>
     <t>Phone Number</t>
-  </si>
-  <si>
-    <t>vivian</t>
-  </si>
-  <si>
-    <t>sweshik</t>
-  </si>
-  <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>saahit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +76,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -112,7 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,7 +438,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,47 +447,48 @@
     <col min="2" max="2" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>918332966667</v>
+        <v>9550517230</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>919182541297</v>
+        <v>9182541297</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>917416822903</v>
+        <v>6302671659</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>917075661642</v>
+        <v>7013156778</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>